--- a/Listas de precios/minorista/CAÑOS EXTENSIBLES - CURVOS.xlsx
+++ b/Listas de precios/minorista/CAÑOS EXTENSIBLES - CURVOS.xlsx
@@ -757,7 +757,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="2">
@@ -1276,8 +1276,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A47:D47"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A47:D47"/>
   </mergeCells>
   <pageMargins left="0.7480314960629921" right="0.7480314960629921" top="0.984251968503937" bottom="0.3937007874015748" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/CAÑOS EXTENSIBLES - CURVOS.xlsx
+++ b/Listas de precios/minorista/CAÑOS EXTENSIBLES - CURVOS.xlsx
@@ -757,7 +757,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="2">
@@ -1276,8 +1276,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7480314960629921" right="0.7480314960629921" top="0.984251968503937" bottom="0.3937007874015748" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/CAÑOS EXTENSIBLES - CURVOS.xlsx
+++ b/Listas de precios/minorista/CAÑOS EXTENSIBLES - CURVOS.xlsx
@@ -757,7 +757,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="2">
@@ -1276,8 +1276,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A47:D47"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A47:D47"/>
   </mergeCells>
   <pageMargins left="0.7480314960629921" right="0.7480314960629921" top="0.984251968503937" bottom="0.3937007874015748" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
